--- a/Data/Processed/Angiosperms/missing_powo_ipni/Menispermaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Menispermaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -14787,7 +14787,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brittonia 3: 37. 1938 </t>
+          <t>Brittonia 3: 37. 1938</t>
         </is>
       </c>
       <c r="J260" t="b">
@@ -15118,7 +15118,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -15128,7 +15128,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) IV, Fam. 94: 176. 1910 </t>
+          <t>Pflanzenr. (Engler) IV, Fam. 94: 176. 1910</t>
         </is>
       </c>
       <c r="J261" t="b">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) IV, Fam. 94: 176. 1910 </t>
+          <t>Pflanzenr. (Engler) IV, Fam. 94: 176. 1910</t>
         </is>
       </c>
       <c r="J262" t="b">
